--- a/data/backend/utility_structure.xlsx
+++ b/data/backend/utility_structure.xlsx
@@ -364,19 +364,31 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
     <t>ACTIVITY_PRODUCT_GROUP</t>
   </si>
   <si>
-    <t>$VALUES</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>PRODUCT_ORDER_GROUP</t>
   </si>
   <si>
     <t>ACTIVITY_ORDER_GROUP</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>PRODUCT_ORDER_GROUP</t>
+    <t>eurekaContainer</t>
+  </si>
+  <si>
+    <t>org.testcontainers.containers.GenericContainer</t>
+  </si>
+  <si>
+    <t>postgresqlContainer</t>
+  </si>
+  <si>
+    <t>org.testcontainers.containers.PostgreSQLContainer</t>
   </si>
   <si>
     <t>kafkaContainer</t>
@@ -385,18 +397,6 @@
     <t>org.testcontainers.containers.KafkaContainer</t>
   </si>
   <si>
-    <t>eurekaContainer</t>
-  </si>
-  <si>
-    <t>org.testcontainers.containers.GenericContainer</t>
-  </si>
-  <si>
-    <t>postgresqlContainer</t>
-  </si>
-  <si>
-    <t>org.testcontainers.containers.PostgreSQLContainer</t>
-  </si>
-  <si>
     <t>EUREKA_PORT</t>
   </si>
   <si>
@@ -415,64 +415,73 @@
     <t>PRODUCT_AMPLIFIER_VARIANT_INTERNAL_TOPIC</t>
   </si>
   <si>
+    <t>PRODUCT_HEADPHONES_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SUBWOOFERS_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SPEAKERS_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>ORDER_ENTRY_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_MICROPHONE_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_PRODUCER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>topicName</t>
+  </si>
+  <si>
+    <t>PRODUCT_GRAMOPHONE_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_COMMENT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>ORDER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_MICROPHONE_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
+  </si>
+  <si>
     <t>PRODUCT_AMPLIFIER_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_MICROPHONE_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>ORDER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_PRODUCER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SUBWOOFERS_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_HEADPHONES_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_COMMENT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SPEAKERS_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>ORDER_ENTRY_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_GRAMOPHONE_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>topicName</t>
-  </si>
-  <si>
-    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
-  </si>
-  <si>
     <t>PRODUCT_SUBWOOFERS_VARIANT_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_MICROPHONE_VARIANT_INTERNAL_TOPIC</t>
+    <t>serialVersionUID</t>
+  </si>
+  <si>
+    <t>long</t>
   </si>
   <si>
     <t>$assertionsDisabled</t>
   </si>
   <si>
-    <t>serialVersionUID</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>NOT_IN</t>
+  </si>
+  <si>
+    <t>EQUAL</t>
   </si>
   <si>
     <t>operator</t>
@@ -484,24 +493,15 @@
     <t>LESS_THAN</t>
   </si>
   <si>
-    <t>EQUAL</t>
+    <t>LESS_THAN_OR_EQUAL</t>
   </si>
   <si>
     <t>NOT_EQUAL</t>
   </si>
   <si>
-    <t>LESS_THAN_OR_EQUAL</t>
-  </si>
-  <si>
     <t>GREATER_THAN</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>NOT_IN</t>
-  </si>
-  <si>
     <t>$SwitchMap$org$andante$enums$OperationStatus</t>
   </si>
   <si>
@@ -520,52 +520,52 @@
     <t>DELETE</t>
   </si>
   <si>
+    <t>property</t>
+  </si>
+  <si>
     <t>RSQL_MAPPING_ERROR_MESSAGE</t>
   </si>
   <si>
+    <t>DATABASE_WILDCARD</t>
+  </si>
+  <si>
     <t>RSQL_WILDCARD</t>
   </si>
   <si>
     <t>arguments</t>
   </si>
   <si>
-    <t>DATABASE_WILDCARD</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
     <t>specificationBuilder</t>
   </si>
   <si>
+    <t>APOSTROPHE</t>
+  </si>
+  <si>
     <t>TILDE</t>
   </si>
   <si>
+    <t>QUOTE</t>
+  </si>
+  <si>
+    <t>EXCLAMATION_MARK</t>
+  </si>
+  <si>
+    <t>COMMA</t>
+  </si>
+  <si>
+    <t>RIGHT_BRACKET</t>
+  </si>
+  <si>
     <t>reservedCharacter</t>
   </si>
   <si>
-    <t>RIGHT_BRACKET</t>
+    <t>LEFT_BRACKET</t>
   </si>
   <si>
     <t>EQUALS</t>
   </si>
   <si>
-    <t>APOSTROPHE</t>
-  </si>
-  <si>
-    <t>COMMA</t>
-  </si>
-  <si>
-    <t>EXCLAMATION_MARK</t>
-  </si>
-  <si>
     <t>SEMICOLON</t>
-  </si>
-  <si>
-    <t>QUOTE</t>
-  </si>
-  <si>
-    <t>LEFT_BRACKET</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -4578,10 +4578,10 @@
         <v>114</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -4592,10 +4592,10 @@
         <v>115</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4606,10 +4606,10 @@
         <v>116</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -4620,10 +4620,10 @@
         <v>117</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4715,13 +4715,13 @@
         <v>41</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -4729,13 +4729,13 @@
         <v>41</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -4858,10 +4858,10 @@
         <v>137</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -4942,10 +4942,10 @@
         <v>143</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -4981,13 +4981,13 @@
         <v>46</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -4995,13 +4995,13 @@
         <v>46</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
@@ -5029,7 +5029,7 @@
         <v>56</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35">
@@ -5037,13 +5037,13 @@
         <v>49</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>150</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -5051,13 +5051,13 @@
         <v>49</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37">
@@ -5065,13 +5065,13 @@
         <v>67</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -5079,7 +5079,7 @@
         <v>67</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
@@ -5093,7 +5093,7 @@
         <v>67</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
@@ -5107,7 +5107,7 @@
         <v>67</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>6</v>
@@ -5121,13 +5121,13 @@
         <v>67</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42">
@@ -5135,7 +5135,7 @@
         <v>67</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
@@ -5149,7 +5149,7 @@
         <v>67</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
@@ -5163,13 +5163,13 @@
         <v>67</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45">
@@ -5233,13 +5233,13 @@
         <v>81</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
@@ -5247,7 +5247,7 @@
         <v>81</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>6</v>
@@ -5261,7 +5261,7 @@
         <v>81</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -5275,13 +5275,13 @@
         <v>81</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
@@ -5303,13 +5303,13 @@
         <v>83</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55">
@@ -5317,13 +5317,13 @@
         <v>83</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -5337,7 +5337,7 @@
         <v>32</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
@@ -5365,7 +5365,7 @@
         <v>32</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
@@ -5387,13 +5387,13 @@
         <v>102</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61">
@@ -5401,13 +5401,13 @@
         <v>102</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62">
@@ -5415,7 +5415,7 @@
         <v>102</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -5429,7 +5429,7 @@
         <v>102</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -5443,7 +5443,7 @@
         <v>102</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -5457,7 +5457,7 @@
         <v>102</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -5471,7 +5471,7 @@
         <v>102</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -5485,7 +5485,7 @@
         <v>102</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
@@ -5499,13 +5499,13 @@
         <v>102</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69">
@@ -5513,7 +5513,7 @@
         <v>102</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -5527,13 +5527,13 @@
         <v>102</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71">
@@ -5541,7 +5541,7 @@
         <v>102</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
@@ -5555,7 +5555,7 @@
         <v>102</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>

--- a/data/backend/utility_structure.xlsx
+++ b/data/backend/utility_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="210">
   <si>
     <t>Class Name</t>
   </si>
@@ -364,19 +366,25 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>ACTIVITY_ORDER_GROUP</t>
+  </si>
+  <si>
+    <t>PRODUCT_ORDER_GROUP</t>
+  </si>
+  <si>
+    <t>ACTIVITY_PRODUCT_GROUP</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>$VALUES</t>
   </si>
   <si>
-    <t>ACTIVITY_PRODUCT_GROUP</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>PRODUCT_ORDER_GROUP</t>
-  </si>
-  <si>
-    <t>ACTIVITY_ORDER_GROUP</t>
+    <t>kafkaContainer</t>
+  </si>
+  <si>
+    <t>org.testcontainers.containers.KafkaContainer</t>
   </si>
   <si>
     <t>eurekaContainer</t>
@@ -385,87 +393,81 @@
     <t>org.testcontainers.containers.GenericContainer</t>
   </si>
   <si>
+    <t>EUREKA_PORT</t>
+  </si>
+  <si>
+    <t>java.lang.Integer</t>
+  </si>
+  <si>
     <t>postgresqlContainer</t>
   </si>
   <si>
     <t>org.testcontainers.containers.PostgreSQLContainer</t>
   </si>
   <si>
-    <t>kafkaContainer</t>
-  </si>
-  <si>
-    <t>org.testcontainers.containers.KafkaContainer</t>
-  </si>
-  <si>
-    <t>EUREKA_PORT</t>
-  </si>
-  <si>
-    <t>java.lang.Integer</t>
+    <t>NOT_FOUND</t>
   </si>
   <si>
     <t>CLIENT_ERROR</t>
   </si>
   <si>
-    <t>NOT_FOUND</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>PRODUCT_AMPLIFIER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_PRODUCER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>topicName</t>
+  </si>
+  <si>
+    <t>ORDER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_HEADPHONES_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SUBWOOFERS_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SUBWOOFERS_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_COMMENT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SPEAKERS_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
     <t>PRODUCT_AMPLIFIER_VARIANT_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_HEADPHONES_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SUBWOOFERS_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SPEAKERS_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
     <t>ORDER_ENTRY_INTERNAL_TOPIC</t>
   </si>
   <si>
     <t>PRODUCT_MICROPHONE_VARIANT_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_PRODUCER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>topicName</t>
+    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
   </si>
   <si>
     <t>PRODUCT_GRAMOPHONE_VARIANT_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_COMMENT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>ORDER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
-  </si>
-  <si>
     <t>PRODUCT_MICROPHONE_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_AMPLIFIER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SUBWOOFERS_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
@@ -475,33 +477,33 @@
     <t>$assertionsDisabled</t>
   </si>
   <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>NOT_EQUAL</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
+    <t>GREATER_THAN</t>
+  </si>
+  <si>
+    <t>LESS_THAN</t>
+  </si>
+  <si>
+    <t>GREATER_THAN_OR_EQUAL</t>
+  </si>
+  <si>
+    <t>EQUAL</t>
+  </si>
+  <si>
     <t>NOT_IN</t>
   </si>
   <si>
-    <t>EQUAL</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>GREATER_THAN_OR_EQUAL</t>
-  </si>
-  <si>
-    <t>LESS_THAN</t>
-  </si>
-  <si>
     <t>LESS_THAN_OR_EQUAL</t>
   </si>
   <si>
-    <t>NOT_EQUAL</t>
-  </si>
-  <si>
-    <t>GREATER_THAN</t>
-  </si>
-  <si>
     <t>$SwitchMap$org$andante$enums$OperationStatus</t>
   </si>
   <si>
@@ -511,63 +513,63 @@
     <t>$SwitchMap$org$andante$rsql$operator$RSQLSearchOperator</t>
   </si>
   <si>
+    <t>DELETE</t>
+  </si>
+  <si>
     <t>CREATE</t>
   </si>
   <si>
     <t>MODIFY</t>
   </si>
   <si>
-    <t>DELETE</t>
+    <t>RSQL_WILDCARD</t>
+  </si>
+  <si>
+    <t>arguments</t>
   </si>
   <si>
     <t>property</t>
   </si>
   <si>
+    <t>DATABASE_WILDCARD</t>
+  </si>
+  <si>
     <t>RSQL_MAPPING_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>DATABASE_WILDCARD</t>
-  </si>
-  <si>
-    <t>RSQL_WILDCARD</t>
-  </si>
-  <si>
-    <t>arguments</t>
-  </si>
-  <si>
     <t>specificationBuilder</t>
   </si>
   <si>
+    <t>TILDE</t>
+  </si>
+  <si>
+    <t>reservedCharacter</t>
+  </si>
+  <si>
     <t>APOSTROPHE</t>
   </si>
   <si>
-    <t>TILDE</t>
+    <t>RIGHT_BRACKET</t>
+  </si>
+  <si>
+    <t>SEMICOLON</t>
   </si>
   <si>
     <t>QUOTE</t>
   </si>
   <si>
+    <t>LEFT_BRACKET</t>
+  </si>
+  <si>
+    <t>EQUALS</t>
+  </si>
+  <si>
+    <t>COMMA</t>
+  </si>
+  <si>
     <t>EXCLAMATION_MARK</t>
   </si>
   <si>
-    <t>COMMA</t>
-  </si>
-  <si>
-    <t>RIGHT_BRACKET</t>
-  </si>
-  <si>
-    <t>reservedCharacter</t>
-  </si>
-  <si>
-    <t>LEFT_BRACKET</t>
-  </si>
-  <si>
-    <t>EQUALS</t>
-  </si>
-  <si>
-    <t>SEMICOLON</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -602,6 +604,54 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -4521,6 +4571,663 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D1"/>
@@ -4578,10 +5285,10 @@
         <v>114</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4606,10 +5313,10 @@
         <v>116</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4620,10 +5327,10 @@
         <v>117</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -4634,10 +5341,10 @@
         <v>118</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -4715,13 +5422,13 @@
         <v>41</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -4729,13 +5436,13 @@
         <v>41</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14">
@@ -4802,10 +5509,10 @@
         <v>133</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -4858,10 +5565,10 @@
         <v>137</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -4995,13 +5702,13 @@
         <v>46</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -5009,13 +5716,13 @@
         <v>46</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
@@ -5037,13 +5744,13 @@
         <v>49</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36">
@@ -5051,13 +5758,13 @@
         <v>49</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>149</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -5065,13 +5772,13 @@
         <v>67</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38">
@@ -5079,7 +5786,7 @@
         <v>67</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>6</v>
@@ -5093,7 +5800,7 @@
         <v>67</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
@@ -5107,7 +5814,7 @@
         <v>67</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>6</v>
@@ -5121,13 +5828,13 @@
         <v>67</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42">
@@ -5135,13 +5842,13 @@
         <v>67</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43">
@@ -5233,13 +5940,13 @@
         <v>81</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50">
@@ -5247,13 +5954,13 @@
         <v>81</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
@@ -5289,13 +5996,13 @@
         <v>83</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
@@ -5303,13 +6010,13 @@
         <v>83</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
@@ -5323,7 +6030,7 @@
         <v>32</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>15</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
@@ -5365,7 +6072,7 @@
         <v>32</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>90</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59">
@@ -5387,13 +6094,13 @@
         <v>102</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61">
@@ -5401,13 +6108,13 @@
         <v>102</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62">
@@ -5415,7 +6122,7 @@
         <v>102</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -5429,7 +6136,7 @@
         <v>102</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -5443,7 +6150,7 @@
         <v>102</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -5457,7 +6164,7 @@
         <v>102</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -5471,7 +6178,7 @@
         <v>102</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -5485,7 +6192,7 @@
         <v>102</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
@@ -5499,13 +6206,13 @@
         <v>102</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69">
@@ -5513,7 +6220,7 @@
         <v>102</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -5541,7 +6248,7 @@
         <v>102</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
@@ -5555,13 +6262,13 @@
         <v>102</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/utility_structure.xlsx
+++ b/data/backend/utility_structure.xlsx
@@ -366,19 +366,25 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>ACTIVITY_PRODUCT_GROUP</t>
+  </si>
+  <si>
+    <t>PRODUCT_ORDER_GROUP</t>
+  </si>
+  <si>
     <t>ACTIVITY_ORDER_GROUP</t>
   </si>
   <si>
-    <t>PRODUCT_ORDER_GROUP</t>
-  </si>
-  <si>
-    <t>ACTIVITY_PRODUCT_GROUP</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>$VALUES</t>
+    <t>EUREKA_PORT</t>
+  </si>
+  <si>
+    <t>java.lang.Integer</t>
   </si>
   <si>
     <t>kafkaContainer</t>
@@ -393,12 +399,6 @@
     <t>org.testcontainers.containers.GenericContainer</t>
   </si>
   <si>
-    <t>EUREKA_PORT</t>
-  </si>
-  <si>
-    <t>java.lang.Integer</t>
-  </si>
-  <si>
     <t>postgresqlContainer</t>
   </si>
   <si>
@@ -414,60 +414,60 @@
     <t>OK</t>
   </si>
   <si>
+    <t>PRODUCT_SUBWOOFERS_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_COMMENT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>ORDER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_AMPLIFIER_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>topicName</t>
+  </si>
+  <si>
+    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>ORDER_ENTRY_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_HEADPHONES_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_MICROPHONE_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SPEAKERS_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_GRAMOPHONE_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
     <t>PRODUCT_AMPLIFIER_INTERNAL_TOPIC</t>
   </si>
   <si>
+    <t>PRODUCT_SUBWOOFERS_INTERNAL_TOPIC</t>
+  </si>
+  <si>
     <t>PRODUCT_PRODUCER_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>topicName</t>
-  </si>
-  <si>
-    <t>ORDER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_HEADPHONES_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SUBWOOFERS_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SUBWOOFERS_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_COMMENT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SPEAKERS_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_AMPLIFIER_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>ORDER_ENTRY_INTERNAL_TOPIC</t>
-  </si>
-  <si>
     <t>PRODUCT_MICROPHONE_VARIANT_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_GRAMOPHONE_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_MICROPHONE_INTERNAL_TOPIC</t>
-  </si>
-  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
@@ -477,33 +477,33 @@
     <t>$assertionsDisabled</t>
   </si>
   <si>
+    <t>EQUAL</t>
+  </si>
+  <si>
+    <t>NOT_EQUAL</t>
+  </si>
+  <si>
+    <t>LESS_THAN_OR_EQUAL</t>
+  </si>
+  <si>
+    <t>NOT_IN</t>
+  </si>
+  <si>
+    <t>GREATER_THAN_OR_EQUAL</t>
+  </si>
+  <si>
+    <t>GREATER_THAN</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
     <t>operator</t>
   </si>
   <si>
-    <t>NOT_EQUAL</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>GREATER_THAN</t>
-  </si>
-  <si>
     <t>LESS_THAN</t>
   </si>
   <si>
-    <t>GREATER_THAN_OR_EQUAL</t>
-  </si>
-  <si>
-    <t>EQUAL</t>
-  </si>
-  <si>
-    <t>NOT_IN</t>
-  </si>
-  <si>
-    <t>LESS_THAN_OR_EQUAL</t>
-  </si>
-  <si>
     <t>$SwitchMap$org$andante$enums$OperationStatus</t>
   </si>
   <si>
@@ -516,58 +516,58 @@
     <t>DELETE</t>
   </si>
   <si>
+    <t>MODIFY</t>
+  </si>
+  <si>
     <t>CREATE</t>
   </si>
   <si>
-    <t>MODIFY</t>
+    <t>DATABASE_WILDCARD</t>
+  </si>
+  <si>
+    <t>property</t>
+  </si>
+  <si>
+    <t>arguments</t>
+  </si>
+  <si>
+    <t>RSQL_MAPPING_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>RSQL_WILDCARD</t>
   </si>
   <si>
-    <t>arguments</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>DATABASE_WILDCARD</t>
-  </si>
-  <si>
-    <t>RSQL_MAPPING_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>specificationBuilder</t>
   </si>
   <si>
+    <t>QUOTE</t>
+  </si>
+  <si>
+    <t>SEMICOLON</t>
+  </si>
+  <si>
+    <t>EXCLAMATION_MARK</t>
+  </si>
+  <si>
+    <t>LEFT_BRACKET</t>
+  </si>
+  <si>
+    <t>EQUALS</t>
+  </si>
+  <si>
+    <t>APOSTROPHE</t>
+  </si>
+  <si>
+    <t>COMMA</t>
+  </si>
+  <si>
+    <t>RIGHT_BRACKET</t>
+  </si>
+  <si>
+    <t>reservedCharacter</t>
+  </si>
+  <si>
     <t>TILDE</t>
-  </si>
-  <si>
-    <t>reservedCharacter</t>
-  </si>
-  <si>
-    <t>APOSTROPHE</t>
-  </si>
-  <si>
-    <t>RIGHT_BRACKET</t>
-  </si>
-  <si>
-    <t>SEMICOLON</t>
-  </si>
-  <si>
-    <t>QUOTE</t>
-  </si>
-  <si>
-    <t>LEFT_BRACKET</t>
-  </si>
-  <si>
-    <t>EQUALS</t>
-  </si>
-  <si>
-    <t>COMMA</t>
-  </si>
-  <si>
-    <t>EXCLAMATION_MARK</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -5285,10 +5285,10 @@
         <v>114</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -5299,10 +5299,10 @@
         <v>115</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -5327,10 +5327,10 @@
         <v>117</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5341,10 +5341,10 @@
         <v>118</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5408,13 +5408,13 @@
         <v>41</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -5422,13 +5422,13 @@
         <v>41</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -5509,10 +5509,10 @@
         <v>133</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -5537,10 +5537,10 @@
         <v>135</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -5548,13 +5548,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -5562,7 +5562,7 @@
         <v>46</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
@@ -5576,7 +5576,7 @@
         <v>46</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
@@ -5590,7 +5590,7 @@
         <v>46</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
@@ -5604,7 +5604,7 @@
         <v>46</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
@@ -5618,7 +5618,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
@@ -5632,7 +5632,7 @@
         <v>46</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>
@@ -5646,7 +5646,7 @@
         <v>46</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
@@ -5660,7 +5660,7 @@
         <v>46</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
@@ -5674,7 +5674,7 @@
         <v>46</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
@@ -5688,7 +5688,7 @@
         <v>46</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
@@ -5702,7 +5702,7 @@
         <v>46</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>6</v>
@@ -5716,13 +5716,13 @@
         <v>46</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -5744,13 +5744,13 @@
         <v>49</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>149</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -5758,13 +5758,13 @@
         <v>49</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37">
@@ -5775,10 +5775,10 @@
         <v>151</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38">
@@ -5842,13 +5842,13 @@
         <v>67</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43">
@@ -5856,7 +5856,7 @@
         <v>67</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
@@ -5870,13 +5870,13 @@
         <v>67</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
@@ -5884,7 +5884,7 @@
         <v>67</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
@@ -5898,13 +5898,13 @@
         <v>67</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
@@ -5954,13 +5954,13 @@
         <v>81</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -5968,7 +5968,7 @@
         <v>81</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -5982,13 +5982,13 @@
         <v>81</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53">
@@ -5996,13 +5996,13 @@
         <v>83</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -6010,7 +6010,7 @@
         <v>83</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>32</v>
@@ -6024,7 +6024,7 @@
         <v>83</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>32</v>
@@ -6038,7 +6038,7 @@
         <v>83</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>32</v>
@@ -6052,13 +6052,13 @@
         <v>83</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58">
@@ -6108,13 +6108,13 @@
         <v>102</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62">
@@ -6122,7 +6122,7 @@
         <v>102</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -6136,7 +6136,7 @@
         <v>102</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -6150,7 +6150,7 @@
         <v>102</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -6164,7 +6164,7 @@
         <v>102</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -6178,7 +6178,7 @@
         <v>102</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -6192,7 +6192,7 @@
         <v>102</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
@@ -6206,7 +6206,7 @@
         <v>102</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
@@ -6220,7 +6220,7 @@
         <v>102</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -6234,13 +6234,13 @@
         <v>102</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>180</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71">
@@ -6248,13 +6248,13 @@
         <v>102</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
@@ -6262,13 +6262,13 @@
         <v>102</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/utility_structure.xlsx
+++ b/data/backend/utility_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="226">
   <si>
     <t>Class Name</t>
   </si>
@@ -366,6 +366,9 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>ACTIVITY_ORDER_GROUP</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -378,7 +381,16 @@
     <t>PRODUCT_ORDER_GROUP</t>
   </si>
   <si>
-    <t>ACTIVITY_ORDER_GROUP</t>
+    <t>eurekaContainer</t>
+  </si>
+  <si>
+    <t>org.testcontainers.containers.GenericContainer</t>
+  </si>
+  <si>
+    <t>kafkaContainer</t>
+  </si>
+  <si>
+    <t>org.testcontainers.containers.KafkaContainer</t>
   </si>
   <si>
     <t>EUREKA_PORT</t>
@@ -387,18 +399,6 @@
     <t>java.lang.Integer</t>
   </si>
   <si>
-    <t>kafkaContainer</t>
-  </si>
-  <si>
-    <t>org.testcontainers.containers.KafkaContainer</t>
-  </si>
-  <si>
-    <t>eurekaContainer</t>
-  </si>
-  <si>
-    <t>org.testcontainers.containers.GenericContainer</t>
-  </si>
-  <si>
     <t>postgresqlContainer</t>
   </si>
   <si>
@@ -414,60 +414,60 @@
     <t>OK</t>
   </si>
   <si>
+    <t>PRODUCT_SPEAKERS_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SUBWOOFERS_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_PRODUCER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_MICROPHONE_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>ORDER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>ORDER_ENTRY_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_COMMENT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_GRAMOPHONE_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_MICROPHONE_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_AMPLIFIER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_AMPLIFIER_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>topicName</t>
+  </si>
+  <si>
     <t>PRODUCT_SUBWOOFERS_VARIANT_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_COMMENT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>ORDER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_AMPLIFIER_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>topicName</t>
-  </si>
-  <si>
-    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>ORDER_ENTRY_INTERNAL_TOPIC</t>
-  </si>
-  <si>
     <t>PRODUCT_HEADPHONES_VARIANT_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_MICROPHONE_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SPEAKERS_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_GRAMOPHONE_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_AMPLIFIER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SUBWOOFERS_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_PRODUCER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_MICROPHONE_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
@@ -477,33 +477,33 @@
     <t>$assertionsDisabled</t>
   </si>
   <si>
+    <t>GREATER_THAN_OR_EQUAL</t>
+  </si>
+  <si>
+    <t>LESS_THAN_OR_EQUAL</t>
+  </si>
+  <si>
+    <t>NOT_EQUAL</t>
+  </si>
+  <si>
     <t>EQUAL</t>
   </si>
   <si>
-    <t>NOT_EQUAL</t>
-  </si>
-  <si>
-    <t>LESS_THAN_OR_EQUAL</t>
+    <t>LESS_THAN</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>GREATER_THAN</t>
   </si>
   <si>
     <t>NOT_IN</t>
   </si>
   <si>
-    <t>GREATER_THAN_OR_EQUAL</t>
-  </si>
-  <si>
-    <t>GREATER_THAN</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>LESS_THAN</t>
-  </si>
-  <si>
     <t>$SwitchMap$org$andante$enums$OperationStatus</t>
   </si>
   <si>
@@ -513,15 +513,15 @@
     <t>$SwitchMap$org$andante$rsql$operator$RSQLSearchOperator</t>
   </si>
   <si>
+    <t>CREATE</t>
+  </si>
+  <si>
     <t>DELETE</t>
   </si>
   <si>
     <t>MODIFY</t>
   </si>
   <si>
-    <t>CREATE</t>
-  </si>
-  <si>
     <t>DATABASE_WILDCARD</t>
   </si>
   <si>
@@ -531,45 +531,45 @@
     <t>arguments</t>
   </si>
   <si>
+    <t>RSQL_WILDCARD</t>
+  </si>
+  <si>
     <t>RSQL_MAPPING_ERROR_MESSAGE</t>
   </si>
   <si>
-    <t>RSQL_WILDCARD</t>
-  </si>
-  <si>
     <t>specificationBuilder</t>
   </si>
   <si>
+    <t>EXCLAMATION_MARK</t>
+  </si>
+  <si>
+    <t>TILDE</t>
+  </si>
+  <si>
+    <t>LEFT_BRACKET</t>
+  </si>
+  <si>
+    <t>COMMA</t>
+  </si>
+  <si>
     <t>QUOTE</t>
   </si>
   <si>
     <t>SEMICOLON</t>
   </si>
   <si>
-    <t>EXCLAMATION_MARK</t>
-  </si>
-  <si>
-    <t>LEFT_BRACKET</t>
+    <t>RIGHT_BRACKET</t>
+  </si>
+  <si>
+    <t>APOSTROPHE</t>
   </si>
   <si>
     <t>EQUALS</t>
   </si>
   <si>
-    <t>APOSTROPHE</t>
-  </si>
-  <si>
-    <t>COMMA</t>
-  </si>
-  <si>
-    <t>RIGHT_BRACKET</t>
-  </si>
-  <si>
     <t>reservedCharacter</t>
   </si>
   <si>
-    <t>TILDE</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -609,49 +609,97 @@
     <t>Number of Lines</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>KafkaConsumerGroup(java.lang.String, int, java.lang.String)</t>
+  </si>
+  <si>
+    <t>TestContainersExtension()</t>
+  </si>
+  <si>
+    <t>OperationStatus(java.lang.String, int)</t>
+  </si>
+  <si>
+    <t>OperationHttpStatusMapper()</t>
+  </si>
+  <si>
+    <t>KafkaTopic(java.lang.String, int, java.lang.String)</t>
+  </si>
+  <si>
+    <t>RSQLException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>RSQLException()</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>RSQLSearchOperator(java.lang.String, int, cz.jirutka.rsql.parser.ast.ComparisonOperator)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>RSQLSpecificationBuilder()</t>
+  </si>
+  <si>
+    <t>UtilityScanConfiguration()</t>
+  </si>
+  <si>
+    <t>OperationType(java.lang.String, int)</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>RSQLSpecification(java.lang.String, cz.jirutka.rsql.parser.ast.ComparisonOperator, java.util.List)</t>
+  </si>
+  <si>
+    <t>PersistentRSQLVisitor(org.andante.rsql.RSQLSpecificationBuilder)</t>
+  </si>
+  <si>
+    <t>RSQLReservedOperator(java.lang.String, int, java.lang.String)</t>
+  </si>
+  <si>
+    <t>RSQLConfiguration()</t>
   </si>
 </sst>
 </file>
@@ -4616,7 +4664,7 @@
         <v>43</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6">
@@ -4624,7 +4672,7 @@
         <v>46</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
@@ -4632,7 +4680,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8">
@@ -4640,7 +4688,7 @@
         <v>67</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -4648,7 +4696,7 @@
         <v>73</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10">
@@ -4656,7 +4704,7 @@
         <v>78</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11">
@@ -4664,7 +4712,7 @@
         <v>79</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12">
@@ -4672,7 +4720,7 @@
         <v>80</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13">
@@ -4688,7 +4736,7 @@
         <v>83</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
@@ -4696,7 +4744,7 @@
         <v>95</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
@@ -4704,7 +4752,7 @@
         <v>102</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17">
@@ -4722,7 +4770,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4747,7 +4795,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3">
@@ -4758,7 +4806,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4">
@@ -4769,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5">
@@ -4780,40 +4828,40 @@
         <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
@@ -4821,249 +4869,249 @@
         <v>41</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>5</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>23</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>197</v>
@@ -5071,156 +5119,321 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>91</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B45" t="s" s="0">
+      <c r="B59" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="C45" t="s" s="0">
-        <v>203</v>
+      <c r="C59" t="s" s="0">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5285,10 +5498,10 @@
         <v>114</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5302,7 +5515,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -5313,10 +5526,10 @@
         <v>116</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -5408,13 +5621,13 @@
         <v>41</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -5422,7 +5635,7 @@
         <v>41</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
@@ -5436,13 +5649,13 @@
         <v>41</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
@@ -5537,10 +5750,10 @@
         <v>135</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
@@ -5548,13 +5761,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -5562,7 +5775,7 @@
         <v>46</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
@@ -5576,7 +5789,7 @@
         <v>46</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
@@ -5590,13 +5803,13 @@
         <v>46</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -5691,10 +5904,10 @@
         <v>145</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -5744,13 +5957,13 @@
         <v>49</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36">
@@ -5758,13 +5971,13 @@
         <v>49</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>56</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>149</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -5786,13 +5999,13 @@
         <v>67</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39">
@@ -5800,7 +6013,7 @@
         <v>67</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
@@ -5814,7 +6027,7 @@
         <v>67</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>6</v>
@@ -5828,7 +6041,7 @@
         <v>67</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
@@ -5842,7 +6055,7 @@
         <v>67</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
@@ -5856,7 +6069,7 @@
         <v>67</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
@@ -5870,7 +6083,7 @@
         <v>67</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>32</v>
@@ -5884,7 +6097,7 @@
         <v>67</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
@@ -5898,13 +6111,13 @@
         <v>67</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47">
@@ -5954,13 +6167,13 @@
         <v>81</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51">
@@ -5968,7 +6181,7 @@
         <v>81</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -5982,13 +6195,13 @@
         <v>81</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
@@ -6052,13 +6265,13 @@
         <v>83</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58">
@@ -6066,13 +6279,13 @@
         <v>83</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>32</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59">
@@ -6094,13 +6307,13 @@
         <v>102</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61">
@@ -6108,7 +6321,7 @@
         <v>102</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>6</v>
@@ -6122,7 +6335,7 @@
         <v>102</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -6136,7 +6349,7 @@
         <v>102</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
@@ -6150,7 +6363,7 @@
         <v>102</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>6</v>
@@ -6164,7 +6377,7 @@
         <v>102</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -6178,7 +6391,7 @@
         <v>102</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -6192,7 +6405,7 @@
         <v>102</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
@@ -6206,7 +6419,7 @@
         <v>102</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
@@ -6220,7 +6433,7 @@
         <v>102</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -6234,13 +6447,13 @@
         <v>102</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71">
@@ -6251,10 +6464,10 @@
         <v>180</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72">
@@ -6265,10 +6478,10 @@
         <v>181</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/utility_structure.xlsx
+++ b/data/backend/utility_structure.xlsx
@@ -609,88 +609,88 @@
     <t>Number of Lines</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>KafkaConsumerGroup(java.lang.String, int, java.lang.String)</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>TestContainersExtension()</t>
+  </si>
+  <si>
+    <t>OperationStatus(java.lang.String, int)</t>
+  </si>
+  <si>
+    <t>OperationHttpStatusMapper()</t>
+  </si>
+  <si>
+    <t>KafkaTopic(java.lang.String, int, java.lang.String)</t>
+  </si>
+  <si>
+    <t>RSQLException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>RSQLException()</t>
+  </si>
+  <si>
+    <t>RSQLSearchOperator(java.lang.String, int, cz.jirutka.rsql.parser.ast.ComparisonOperator)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>RSQLSpecificationBuilder()</t>
+  </si>
+  <si>
+    <t>UtilityScanConfiguration()</t>
+  </si>
+  <si>
+    <t>OperationType(java.lang.String, int)</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>RSQLSpecification(java.lang.String, cz.jirutka.rsql.parser.ast.ComparisonOperator, java.util.List)</t>
   </si>
   <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>KafkaConsumerGroup(java.lang.String, int, java.lang.String)</t>
-  </si>
-  <si>
-    <t>TestContainersExtension()</t>
-  </si>
-  <si>
-    <t>OperationStatus(java.lang.String, int)</t>
-  </si>
-  <si>
-    <t>OperationHttpStatusMapper()</t>
-  </si>
-  <si>
-    <t>KafkaTopic(java.lang.String, int, java.lang.String)</t>
-  </si>
-  <si>
-    <t>RSQLException(java.lang.String)</t>
-  </si>
-  <si>
-    <t>RSQLException()</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>RSQLSearchOperator(java.lang.String, int, cz.jirutka.rsql.parser.ast.ComparisonOperator)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>RSQLSpecificationBuilder()</t>
-  </si>
-  <si>
-    <t>UtilityScanConfiguration()</t>
-  </si>
-  <si>
-    <t>OperationType(java.lang.String, int)</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>RSQLSpecification(java.lang.String, cz.jirutka.rsql.parser.ast.ComparisonOperator, java.util.List)</t>
   </si>
   <si>
     <t>PersistentRSQLVisitor(org.andante.rsql.RSQLSpecificationBuilder)</t>
@@ -4664,7 +4664,7 @@
         <v>43</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6">
@@ -4672,7 +4672,7 @@
         <v>46</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7">
@@ -4680,7 +4680,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -4688,7 +4688,7 @@
         <v>67</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9">
@@ -4696,7 +4696,7 @@
         <v>73</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10">
@@ -4704,7 +4704,7 @@
         <v>78</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11">
@@ -4712,7 +4712,7 @@
         <v>79</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12">
@@ -4720,7 +4720,7 @@
         <v>80</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
@@ -4736,7 +4736,7 @@
         <v>83</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15">
@@ -4744,7 +4744,7 @@
         <v>95</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
@@ -4752,7 +4752,7 @@
         <v>102</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17">
@@ -4760,7 +4760,7 @@
         <v>105</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4795,7 +4795,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
@@ -4806,7 +4806,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
@@ -4817,7 +4817,7 @@
         <v>29</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5">
@@ -4828,7 +4828,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6">
@@ -4836,10 +4836,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>206</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>202</v>
       </c>
     </row>
     <row r="7">
@@ -4850,7 +4850,7 @@
         <v>40</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8">
@@ -4858,10 +4858,10 @@
         <v>39</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10">
@@ -4883,7 +4883,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11">
@@ -4894,7 +4894,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12">
@@ -4902,10 +4902,10 @@
         <v>41</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
@@ -4916,7 +4916,7 @@
         <v>44</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14">
@@ -4924,10 +4924,10 @@
         <v>43</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15">
@@ -4938,7 +4938,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
@@ -4949,7 +4949,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
@@ -4960,7 +4960,7 @@
         <v>47</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18">
@@ -4971,7 +4971,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
@@ -4979,10 +4979,10 @@
         <v>46</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
@@ -4990,10 +4990,10 @@
         <v>49</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21">
@@ -5001,10 +5001,10 @@
         <v>49</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
@@ -5015,7 +5015,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
@@ -5026,7 +5026,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24">
@@ -5037,7 +5037,7 @@
         <v>68</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
@@ -5048,7 +5048,7 @@
         <v>71</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26">
@@ -5059,7 +5059,7 @@
         <v>69</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27">
@@ -5070,7 +5070,7 @@
         <v>31</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28">
@@ -5078,10 +5078,10 @@
         <v>67</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29">
@@ -5092,7 +5092,7 @@
         <v>76</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30">
@@ -5103,7 +5103,7 @@
         <v>74</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31">
@@ -5114,7 +5114,7 @@
         <v>77</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32">
@@ -5125,7 +5125,7 @@
         <v>217</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33">
@@ -5136,7 +5136,7 @@
         <v>218</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34">
@@ -5147,7 +5147,7 @@
         <v>23</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35">
@@ -5158,7 +5158,7 @@
         <v>5</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36">
@@ -5169,7 +5169,7 @@
         <v>31</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37">
@@ -5180,7 +5180,7 @@
         <v>219</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38">
@@ -5202,7 +5202,7 @@
         <v>94</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40">
@@ -5213,7 +5213,7 @@
         <v>84</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41">
@@ -5224,7 +5224,7 @@
         <v>89</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42">
@@ -5235,7 +5235,7 @@
         <v>92</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43">
@@ -5246,7 +5246,7 @@
         <v>91</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44">
@@ -5257,7 +5257,7 @@
         <v>88</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45">
@@ -5268,7 +5268,7 @@
         <v>86</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46">
@@ -5276,10 +5276,10 @@
         <v>83</v>
       </c>
       <c r="B46" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="C46" t="s" s="0">
         <v>222</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>199</v>
       </c>
     </row>
     <row r="47">
@@ -5290,7 +5290,7 @@
         <v>97</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="48">
@@ -5301,7 +5301,7 @@
         <v>98</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49">
@@ -5312,7 +5312,7 @@
         <v>96</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="50">
@@ -5323,7 +5323,7 @@
         <v>101</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51">
@@ -5334,7 +5334,7 @@
         <v>99</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52">
@@ -5345,7 +5345,7 @@
         <v>100</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53">
@@ -5356,7 +5356,7 @@
         <v>223</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54">
@@ -5367,7 +5367,7 @@
         <v>23</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55">
@@ -5378,7 +5378,7 @@
         <v>5</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56">
@@ -5389,7 +5389,7 @@
         <v>103</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57">
@@ -5400,7 +5400,7 @@
         <v>31</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58">
@@ -5411,7 +5411,7 @@
         <v>224</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59">
@@ -5422,7 +5422,7 @@
         <v>106</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60">
@@ -5433,7 +5433,7 @@
         <v>225</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/utility_structure.xlsx
+++ b/data/backend/utility_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="226">
   <si>
     <t>Class Name</t>
   </si>
@@ -60,6 +60,12 @@
     <t>void</t>
   </si>
   <si>
+    <t>KafkaConsumerGroup(java.lang.String, int, java.lang.String)</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>describeConstable()</t>
   </si>
   <si>
@@ -120,9 +126,6 @@
     <t>$values()</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>getDeclaringClass()</t>
   </si>
   <si>
@@ -147,15 +150,24 @@
     <t>beforeAll(org.junit.jupiter.api.extension.ExtensionContext)</t>
   </si>
   <si>
+    <t>TestContainersExtension()</t>
+  </si>
+  <si>
     <t>org.andante.enums.OperationStatus</t>
   </si>
   <si>
+    <t>OperationStatus(java.lang.String, int)</t>
+  </si>
+  <si>
     <t>org.andante.enums.OperationStatus[]</t>
   </si>
   <si>
     <t>org.andante.mappers.OperationHttpStatusMapper</t>
   </si>
   <si>
+    <t>OperationHttpStatusMapper()</t>
+  </si>
+  <si>
     <t>toHttpStatus(org.andante.enums.OperationStatus)</t>
   </si>
   <si>
@@ -171,6 +183,9 @@
     <t>org.andante.enums.KafkaTopic[]</t>
   </si>
   <si>
+    <t>KafkaTopic(java.lang.String, int, java.lang.String)</t>
+  </si>
+  <si>
     <t>org.andante.exception.RSQLException</t>
   </si>
   <si>
@@ -180,6 +195,18 @@
     <t>getMessage()</t>
   </si>
   <si>
+    <t>setCause(java.lang.Throwable)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>getLocalizedMessage()</t>
+  </si>
+  <si>
+    <t>printStackTrace(java.io.PrintWriter)</t>
+  </si>
+  <si>
     <t>fillInStackTrace()</t>
   </si>
   <si>
@@ -189,12 +216,6 @@
     <t>setStackTrace(java.lang.StackTraceElement[])</t>
   </si>
   <si>
-    <t>setCause(java.lang.Throwable)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>addSuppressed(java.lang.Throwable)</t>
   </si>
   <si>
@@ -213,10 +234,10 @@
     <t>printStackTrace(java.io.PrintStream)</t>
   </si>
   <si>
-    <t>getLocalizedMessage()</t>
-  </si>
-  <si>
-    <t>printStackTrace(java.io.PrintWriter)</t>
+    <t>RSQLException(java.lang.String)</t>
+  </si>
+  <si>
+    <t>RSQLException()</t>
   </si>
   <si>
     <t>getSuppressed()</t>
@@ -228,21 +249,24 @@
     <t>org.andante.rsql.operator.RSQLSearchOperator</t>
   </si>
   <si>
+    <t>RSQLSearchOperator(java.lang.String, int, cz.jirutka.rsql.parser.ast.ComparisonOperator)</t>
+  </si>
+  <si>
+    <t>lambda$map$0(cz.jirutka.rsql.parser.ast.ComparisonOperator, org.andante.rsql.operator.RSQLSearchOperator)</t>
+  </si>
+  <si>
+    <t>org.andante.rsql.operator.RSQLSearchOperator[]</t>
+  </si>
+  <si>
+    <t>getOperator()</t>
+  </si>
+  <si>
+    <t>cz.jirutka.rsql.parser.ast.ComparisonOperator</t>
+  </si>
+  <si>
     <t>map(cz.jirutka.rsql.parser.ast.ComparisonOperator)</t>
   </si>
   <si>
-    <t>lambda$map$0(cz.jirutka.rsql.parser.ast.ComparisonOperator, org.andante.rsql.operator.RSQLSearchOperator)</t>
-  </si>
-  <si>
-    <t>org.andante.rsql.operator.RSQLSearchOperator[]</t>
-  </si>
-  <si>
-    <t>getOperator()</t>
-  </si>
-  <si>
-    <t>cz.jirutka.rsql.parser.ast.ComparisonOperator</t>
-  </si>
-  <si>
     <t>org.andante.rsql.RSQLSpecificationBuilder</t>
   </si>
   <si>
@@ -255,12 +279,18 @@
     <t>build(cz.jirutka.rsql.parser.ast.Node)</t>
   </si>
   <si>
+    <t>RSQLSpecificationBuilder()</t>
+  </si>
+  <si>
     <t>buildSpecification(cz.jirutka.rsql.parser.ast.ComparisonNode)</t>
   </si>
   <si>
     <t>org.andante.UtilityScanConfiguration</t>
   </si>
   <si>
+    <t>UtilityScanConfiguration()</t>
+  </si>
+  <si>
     <t>org.andante.mappers.OperationHttpStatusMapper$1</t>
   </si>
   <si>
@@ -273,6 +303,9 @@
     <t>org.andante.enums.OperationType[]</t>
   </si>
   <si>
+    <t>OperationType(java.lang.String, int)</t>
+  </si>
+  <si>
     <t>org.andante.rsql.RSQLSpecification</t>
   </si>
   <si>
@@ -285,6 +318,9 @@
     <t>lambda$toPredicate$0()</t>
   </si>
   <si>
+    <t>RSQLSpecification(java.lang.String, cz.jirutka.rsql.parser.ast.ComparisonOperator, java.util.List)</t>
+  </si>
+  <si>
     <t>toPredicate(javax.persistence.criteria.Root, javax.persistence.criteria.CriteriaQuery, javax.persistence.criteria.CriteriaBuilder)</t>
   </si>
   <si>
@@ -327,6 +363,9 @@
     <t>visit(cz.jirutka.rsql.parser.ast.AndNode, java.lang.Object)</t>
   </si>
   <si>
+    <t>PersistentRSQLVisitor(org.andante.rsql.RSQLSpecificationBuilder)</t>
+  </si>
+  <si>
     <t>visit(cz.jirutka.rsql.parser.ast.ComparisonNode, java.lang.Object)</t>
   </si>
   <si>
@@ -339,9 +378,15 @@
     <t>org.andante.rsql.operator.RSQLReservedOperator[]</t>
   </si>
   <si>
+    <t>RSQLReservedOperator(java.lang.String, int, java.lang.String)</t>
+  </si>
+  <si>
     <t>org.andante.rsql.configuration.RSQLConfiguration</t>
   </si>
   <si>
+    <t>RSQLConfiguration()</t>
+  </si>
+  <si>
     <t>rsqlParser()</t>
   </si>
   <si>
@@ -366,19 +411,31 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>$VALUES</t>
+  </si>
+  <si>
+    <t>PRODUCT_ORDER_GROUP</t>
+  </si>
+  <si>
+    <t>ACTIVITY_PRODUCT_GROUP</t>
+  </si>
+  <si>
     <t>ACTIVITY_ORDER_GROUP</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>$VALUES</t>
-  </si>
-  <si>
-    <t>ACTIVITY_PRODUCT_GROUP</t>
-  </si>
-  <si>
-    <t>PRODUCT_ORDER_GROUP</t>
+    <t>kafkaContainer</t>
+  </si>
+  <si>
+    <t>org.testcontainers.containers.KafkaContainer</t>
+  </si>
+  <si>
+    <t>postgresqlContainer</t>
+  </si>
+  <si>
+    <t>org.testcontainers.containers.PostgreSQLContainer</t>
   </si>
   <si>
     <t>eurekaContainer</t>
@@ -387,22 +444,13 @@
     <t>org.testcontainers.containers.GenericContainer</t>
   </si>
   <si>
-    <t>kafkaContainer</t>
-  </si>
-  <si>
-    <t>org.testcontainers.containers.KafkaContainer</t>
-  </si>
-  <si>
     <t>EUREKA_PORT</t>
   </si>
   <si>
     <t>java.lang.Integer</t>
   </si>
   <si>
-    <t>postgresqlContainer</t>
-  </si>
-  <si>
-    <t>org.testcontainers.containers.PostgreSQLContainer</t>
+    <t>OK</t>
   </si>
   <si>
     <t>NOT_FOUND</t>
@@ -411,63 +459,60 @@
     <t>CLIENT_ERROR</t>
   </si>
   <si>
-    <t>OK</t>
+    <t>ORDER_ENTRY_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_HEADPHONES_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_MICROPHONE_INTERNAL_TOPIC</t>
   </si>
   <si>
     <t>PRODUCT_SPEAKERS_VARIANT_INTERNAL_TOPIC</t>
   </si>
   <si>
+    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SUBWOOFERS_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_COMMENT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
+  </si>
+  <si>
     <t>PRODUCT_SUBWOOFERS_INTERNAL_TOPIC</t>
   </si>
   <si>
+    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>topicName</t>
+  </si>
+  <si>
+    <t>PRODUCT_AMPLIFIER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_GRAMOPHONE_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
+  </si>
+  <si>
     <t>PRODUCT_PRODUCER_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_MICROPHONE_INTERNAL_TOPIC</t>
+    <t>PRODUCT_MICROPHONE_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_AMPLIFIER_VARIANT_INTERNAL_TOPIC</t>
   </si>
   <si>
     <t>ORDER_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>ORDER_ENTRY_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_COMMENT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_GRAMOPHONE_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_MICROPHONE_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_AMPLIFIER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_AMPLIFIER_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>topicName</t>
-  </si>
-  <si>
-    <t>PRODUCT_SUBWOOFERS_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_HEADPHONES_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
@@ -477,33 +522,33 @@
     <t>$assertionsDisabled</t>
   </si>
   <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>NOT_IN</t>
+  </si>
+  <si>
+    <t>LESS_THAN_OR_EQUAL</t>
+  </si>
+  <si>
+    <t>NOT_EQUAL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>EQUAL</t>
+  </si>
+  <si>
+    <t>GREATER_THAN</t>
+  </si>
+  <si>
+    <t>LESS_THAN</t>
+  </si>
+  <si>
     <t>GREATER_THAN_OR_EQUAL</t>
   </si>
   <si>
-    <t>LESS_THAN_OR_EQUAL</t>
-  </si>
-  <si>
-    <t>NOT_EQUAL</t>
-  </si>
-  <si>
-    <t>EQUAL</t>
-  </si>
-  <si>
-    <t>LESS_THAN</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>GREATER_THAN</t>
-  </si>
-  <si>
-    <t>NOT_IN</t>
-  </si>
-  <si>
     <t>$SwitchMap$org$andante$enums$OperationStatus</t>
   </si>
   <si>
@@ -513,63 +558,63 @@
     <t>$SwitchMap$org$andante$rsql$operator$RSQLSearchOperator</t>
   </si>
   <si>
+    <t>MODIFY</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
     <t>CREATE</t>
   </si>
   <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>MODIFY</t>
+    <t>property</t>
+  </si>
+  <si>
+    <t>RSQL_WILDCARD</t>
   </si>
   <si>
     <t>DATABASE_WILDCARD</t>
   </si>
   <si>
-    <t>property</t>
-  </si>
-  <si>
     <t>arguments</t>
   </si>
   <si>
-    <t>RSQL_WILDCARD</t>
-  </si>
-  <si>
     <t>RSQL_MAPPING_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>specificationBuilder</t>
   </si>
   <si>
+    <t>reservedCharacter</t>
+  </si>
+  <si>
+    <t>TILDE</t>
+  </si>
+  <si>
+    <t>RIGHT_BRACKET</t>
+  </si>
+  <si>
+    <t>SEMICOLON</t>
+  </si>
+  <si>
+    <t>APOSTROPHE</t>
+  </si>
+  <si>
+    <t>QUOTE</t>
+  </si>
+  <si>
+    <t>EQUALS</t>
+  </si>
+  <si>
+    <t>COMMA</t>
+  </si>
+  <si>
+    <t>LEFT_BRACKET</t>
+  </si>
+  <si>
     <t>EXCLAMATION_MARK</t>
   </si>
   <si>
-    <t>TILDE</t>
-  </si>
-  <si>
-    <t>LEFT_BRACKET</t>
-  </si>
-  <si>
-    <t>COMMA</t>
-  </si>
-  <si>
-    <t>QUOTE</t>
-  </si>
-  <si>
-    <t>SEMICOLON</t>
-  </si>
-  <si>
-    <t>RIGHT_BRACKET</t>
-  </si>
-  <si>
-    <t>APOSTROPHE</t>
-  </si>
-  <si>
-    <t>EQUALS</t>
-  </si>
-  <si>
-    <t>reservedCharacter</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -645,61 +690,16 @@
     <t>3</t>
   </si>
   <si>
-    <t>KafkaConsumerGroup(java.lang.String, int, java.lang.String)</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>TestContainersExtension()</t>
-  </si>
-  <si>
-    <t>OperationStatus(java.lang.String, int)</t>
-  </si>
-  <si>
-    <t>OperationHttpStatusMapper()</t>
-  </si>
-  <si>
-    <t>KafkaTopic(java.lang.String, int, java.lang.String)</t>
-  </si>
-  <si>
-    <t>RSQLException(java.lang.String)</t>
-  </si>
-  <si>
-    <t>RSQLException()</t>
-  </si>
-  <si>
-    <t>RSQLSearchOperator(java.lang.String, int, cz.jirutka.rsql.parser.ast.ComparisonOperator)</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>RSQLSpecificationBuilder()</t>
-  </si>
-  <si>
-    <t>UtilityScanConfiguration()</t>
-  </si>
-  <si>
-    <t>OperationType(java.lang.String, int)</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
-    <t>RSQLSpecification(java.lang.String, cz.jirutka.rsql.parser.ast.ComparisonOperator, java.util.List)</t>
-  </si>
-  <si>
     <t>5</t>
-  </si>
-  <si>
-    <t>PersistentRSQLVisitor(org.andante.rsql.RSQLSpecificationBuilder)</t>
-  </si>
-  <si>
-    <t>RSQLReservedOperator(java.lang.String, int, java.lang.String)</t>
-  </si>
-  <si>
-    <t>RSQLConfiguration()</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D276"/>
+  <dimension ref="A1:D291"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -814,10 +814,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -859,7 +859,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -867,13 +867,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -887,7 +887,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -895,13 +895,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -909,13 +909,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -943,7 +943,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -951,13 +951,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -965,13 +965,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -979,13 +979,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -993,13 +993,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1010,10 +1010,10 @@
         <v>33</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -1027,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
@@ -1041,7 +1041,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -1055,7 +1055,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
@@ -1066,49 +1066,49 @@
         <v>37</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>39</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s" s="0">
-        <v>8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s" s="0">
         <v>11</v>
@@ -1116,38 +1116,38 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
@@ -1158,52 +1158,52 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
@@ -1214,24 +1214,24 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>6</v>
@@ -1242,234 +1242,234 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>6</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>6</v>
@@ -1494,44 +1494,44 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57">
@@ -1539,13 +1539,13 @@
         <v>43</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58">
@@ -1553,10 +1553,10 @@
         <v>43</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D58" t="s" s="0">
         <v>11</v>
@@ -1567,38 +1567,38 @@
         <v>43</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s" s="0">
         <v>11</v>
@@ -1606,66 +1606,66 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -1676,24 +1676,24 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
@@ -1707,13 +1707,13 @@
         <v>46</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70">
@@ -1721,13 +1721,13 @@
         <v>46</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -1735,10 +1735,10 @@
         <v>46</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
         <v>11</v>
@@ -1749,304 +1749,304 @@
         <v>46</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C81" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D88" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s" s="0">
         <v>11</v>
@@ -2054,69 +2054,69 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D96" t="s" s="0">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s" s="0">
         <v>11</v>
@@ -2124,21 +2124,21 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C99" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D99" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B100" t="s" s="0">
         <v>21</v>
@@ -2147,18 +2147,18 @@
         <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D101" t="s" s="0">
         <v>11</v>
@@ -2166,24 +2166,24 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C103" t="s" s="0">
         <v>6</v>
@@ -2194,66 +2194,66 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D107" t="s" s="0">
-        <v>61</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C108" t="s" s="0">
         <v>6</v>
@@ -2264,24 +2264,24 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D109" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>6</v>
@@ -2292,10 +2292,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>6</v>
@@ -2306,83 +2306,83 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C112" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D112" t="s" s="0">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D113" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B115" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B115" t="s" s="0">
-        <v>5</v>
-      </c>
       <c r="C115" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D115" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="C116" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D117" t="s" s="0">
         <v>11</v>
@@ -2390,234 +2390,234 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D122" t="s" s="0">
-        <v>17</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D123" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D125" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D126" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D127" t="s" s="0">
-        <v>70</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B128" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C128" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D128" t="s" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B129" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C129" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D129" t="s" s="0">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B130" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C130" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D130" t="s" s="0">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B131" t="s" s="0">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="C131" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D131" t="s" s="0">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B132" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C132" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D132" t="s" s="0">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B133" t="s" s="0">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C133" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D133" t="s" s="0">
-        <v>72</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B134" t="s" s="0">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s" s="0">
         <v>6</v>
@@ -2628,38 +2628,38 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B135" t="s" s="0">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C135" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D135" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B136" t="s" s="0">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D136" t="s" s="0">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B137" t="s" s="0">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C137" t="s" s="0">
         <v>6</v>
@@ -2670,66 +2670,66 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B138" t="s" s="0">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C138" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D138" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B139" t="s" s="0">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C139" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D139" t="s" s="0">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B140" t="s" s="0">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C140" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D140" t="s" s="0">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B141" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C141" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D141" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B142" t="s" s="0">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C142" t="s" s="0">
         <v>6</v>
@@ -2740,24 +2740,24 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B143" t="s" s="0">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="C143" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D143" t="s" s="0">
-        <v>75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B144" t="s" s="0">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C144" t="s" s="0">
         <v>6</v>
@@ -2768,55 +2768,55 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B145" t="s" s="0">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C145" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D145" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B146" t="s" s="0">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C146" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B147" t="s" s="0">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D147" t="s" s="0">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B148" t="s" s="0">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s" s="0">
         <v>11</v>
@@ -2824,83 +2824,83 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B149" t="s" s="0">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C149" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D149" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B150" t="s" s="0">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C150" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D150" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B151" t="s" s="0">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C151" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D151" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B152" t="s" s="0">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C152" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D152" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B153" t="s" s="0">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C153" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D153" t="s" s="0">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B154" t="s" s="0">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C154" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D154" t="s" s="0">
         <v>11</v>
@@ -2908,38 +2908,38 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B155" t="s" s="0">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C155" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D155" t="s" s="0">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B156" t="s" s="0">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C156" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D156" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B157" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C157" t="s" s="0">
         <v>6</v>
@@ -2950,10 +2950,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B158" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C158" t="s" s="0">
         <v>6</v>
@@ -2964,69 +2964,69 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B159" t="s" s="0">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="C159" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D159" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B160" t="s" s="0">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C160" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D160" t="s" s="0">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B161" t="s" s="0">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C161" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B162" t="s" s="0">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D162" t="s" s="0">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="0">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B163" t="s" s="0">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s" s="0">
         <v>11</v>
@@ -3034,38 +3034,38 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B164" t="s" s="0">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C164" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D164" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B165" t="s" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D165" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B166" t="s" s="0">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C166" t="s" s="0">
         <v>6</v>
@@ -3076,24 +3076,24 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B167" t="s" s="0">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C167" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D167" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B168" t="s" s="0">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="C168" t="s" s="0">
         <v>6</v>
@@ -3104,111 +3104,111 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B169" t="s" s="0">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C169" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D169" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B170" t="s" s="0">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C170" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s" s="0">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B171" t="s" s="0">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C171" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D171" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B172" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C172" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D172" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B173" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C173" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D173" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B174" t="s" s="0">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D174" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B175" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B176" t="s" s="0">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C176" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D176" t="s" s="0">
         <v>11</v>
@@ -3216,38 +3216,38 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B177" t="s" s="0">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C177" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D177" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B178" t="s" s="0">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="C178" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D178" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B179" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C179" t="s" s="0">
         <v>6</v>
@@ -3258,203 +3258,203 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B180" t="s" s="0">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C180" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D180" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B181" t="s" s="0">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C181" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s" s="0">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B182" t="s" s="0">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C182" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D182" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B183" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C183" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D183" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B184" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C184" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D184" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="0">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B185" t="s" s="0">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D185" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B186" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s" s="0">
-        <v>81</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B187" t="s" s="0">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C187" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D187" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B188" t="s" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C188" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D188" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B189" t="s" s="0">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C189" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D189" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B190" t="s" s="0">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C190" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D190" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B191" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C191" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D191" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B192" t="s" s="0">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C192" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B193" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C193" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D193" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B194" t="s" s="0">
         <v>21</v>
@@ -3463,71 +3463,71 @@
         <v>6</v>
       </c>
       <c r="D194" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="0">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B195" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C195" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D195" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B196" t="s" s="0">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D196" t="s" s="0">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B197" t="s" s="0">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D197" t="s" s="0">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B198" t="s" s="0">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B199" t="s" s="0">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C199" t="s" s="0">
         <v>6</v>
@@ -3538,346 +3538,346 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B200" t="s" s="0">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C200" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D200" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B201" t="s" s="0">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C201" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D201" t="s" s="0">
-        <v>82</v>
+        <v>19</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B202" t="s" s="0">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C202" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D202" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B203" t="s" s="0">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C203" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D203" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B204" t="s" s="0">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C204" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D204" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B205" t="s" s="0">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C205" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D205" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B206" t="s" s="0">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C206" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D206" t="s" s="0">
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B207" t="s" s="0">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C207" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D207" t="s" s="0">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B208" t="s" s="0">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C208" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D208" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B209" t="s" s="0">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C209" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D209" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B210" t="s" s="0">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="C210" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D210" t="s" s="0">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B211" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C211" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D211" t="s" s="0">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B212" t="s" s="0">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C212" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D212" t="s" s="0">
-        <v>17</v>
+        <v>92</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B213" t="s" s="0">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C213" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D213" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B214" t="s" s="0">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C214" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D214" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B215" t="s" s="0">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C215" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D215" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B216" t="s" s="0">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C216" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D216" t="s" s="0">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B217" t="s" s="0">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="C217" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D217" t="s" s="0">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B218" t="s" s="0">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D218" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B219" t="s" s="0">
-        <v>89</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D219" t="s" s="0">
-        <v>90</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B220" t="s" s="0">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="C220" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D220" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B221" t="s" s="0">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C221" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D221" t="s" s="0">
-        <v>11</v>
+        <v>96</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B222" t="s" s="0">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C222" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D222" t="s" s="0">
-        <v>93</v>
+        <v>54</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B223" t="s" s="0">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="C223" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D223" t="s" s="0">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B224" t="s" s="0">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C224" t="s" s="0">
         <v>6</v>
@@ -3888,41 +3888,41 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B225" t="s" s="0">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="C225" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D225" t="s" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B226" t="s" s="0">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C226" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D226" t="s" s="0">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B227" t="s" s="0">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C227" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D227" t="s" s="0">
         <v>11</v>
@@ -3930,122 +3930,122 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B228" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C228" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D228" t="s" s="0">
         <v>96</v>
-      </c>
-      <c r="C228" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D228" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B229" t="s" s="0">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C229" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D229" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B230" t="s" s="0">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="C230" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D230" t="s" s="0">
-        <v>75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B231" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C231" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D231" t="s" s="0">
-        <v>75</v>
+        <v>102</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B232" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C232" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D232" t="s" s="0">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B233" t="s" s="0">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C233" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D233" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B234" t="s" s="0">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="C234" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D234" t="s" s="0">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B235" t="s" s="0">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="C235" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D235" t="s" s="0">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B236" t="s" s="0">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C236" t="s" s="0">
         <v>6</v>
@@ -4056,41 +4056,41 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B237" t="s" s="0">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C237" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D237" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B238" t="s" s="0">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D238" t="s" s="0">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B239" t="s" s="0">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C239" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D239" t="s" s="0">
         <v>11</v>
@@ -4098,178 +4098,178 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B240" t="s" s="0">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C240" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D240" t="s" s="0">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B241" t="s" s="0">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="C241" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D241" t="s" s="0">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B242" t="s" s="0">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="C242" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D242" t="s" s="0">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B243" t="s" s="0">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="C243" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D243" t="s" s="0">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B244" t="s" s="0">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="C244" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D244" t="s" s="0">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B245" t="s" s="0">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C245" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D245" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B246" t="s" s="0">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C246" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D246" t="s" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B247" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C247" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D247" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B248" t="s" s="0">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C248" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D248" t="s" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B249" t="s" s="0">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="C249" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D249" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B250" t="s" s="0">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C250" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D250" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B251" t="s" s="0">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C251" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D251" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B252" t="s" s="0">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C252" t="s" s="0">
         <v>6</v>
@@ -4280,83 +4280,83 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B253" t="s" s="0">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="C253" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D253" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B254" t="s" s="0">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="C254" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D254" t="s" s="0">
-        <v>104</v>
+        <v>39</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B255" t="s" s="0">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C255" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D255" t="s" s="0">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B256" t="s" s="0">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D256" t="s" s="0">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B257" t="s" s="0">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D257" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B258" t="s" s="0">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C258" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D258" t="s" s="0">
         <v>11</v>
@@ -4364,24 +4364,24 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B259" t="s" s="0">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C259" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D259" t="s" s="0">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B260" t="s" s="0">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C260" t="s" s="0">
         <v>6</v>
@@ -4392,38 +4392,38 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B261" t="s" s="0">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C261" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D261" t="s" s="0">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B262" t="s" s="0">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="C262" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D262" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B263" t="s" s="0">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C263" t="s" s="0">
         <v>6</v>
@@ -4434,108 +4434,108 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B264" t="s" s="0">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C264" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D264" t="s" s="0">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B265" t="s" s="0">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C265" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D265" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B266" t="s" s="0">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C266" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D266" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B267" t="s" s="0">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="C267" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D267" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B268" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C268" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D268" t="s" s="0">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B269" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C269" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D269" t="s" s="0">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B270" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C270" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D270" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B271" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C271" t="s" s="0">
         <v>6</v>
@@ -4546,41 +4546,41 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B272" t="s" s="0">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C272" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D272" t="s" s="0">
-        <v>17</v>
+        <v>117</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B273" t="s" s="0">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C273" t="s" s="0">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D273" t="s" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B274" t="s" s="0">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="C274" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D274" t="s" s="0">
         <v>11</v>
@@ -4588,30 +4588,240 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B275" t="s" s="0">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C275" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D275" t="s" s="0">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B276" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C276" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D276" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B277" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C277" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B278" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C278" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D278" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B279" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C279" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D279" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B280" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C280" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D280" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B281" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C281" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D281" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B282" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C282" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D282" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B283" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C283" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B284" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C276" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D276" t="s" s="0">
-        <v>11</v>
+      <c r="C284" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D284" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B285" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C285" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D285" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B286" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="C286" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B287" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="C287" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B288" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C288" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B289" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C289" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B290" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C290" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B291" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C291" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D291" t="s" s="0">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4632,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
@@ -4640,127 +4850,127 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>195</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>202</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>197</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>204</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4770,7 +4980,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4784,7 +4994,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
@@ -4792,10 +5002,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3">
@@ -4806,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4">
@@ -4814,10 +5024,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5">
@@ -4828,7 +5038,7 @@
         <v>31</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6">
@@ -4836,604 +5046,582 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>207</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>187</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>210</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>211</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>214</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>5</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>196</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>187</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s" s="0">
         <v>221</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>222</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="B59" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C59" t="s" s="0">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="B60" t="s" s="0">
-        <v>225</v>
-      </c>
-      <c r="C60" t="s" s="0">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -5451,13 +5639,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -5481,13 +5669,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
@@ -5495,13 +5683,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -5509,13 +5697,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5523,13 +5711,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5537,7 +5725,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>6</v>
@@ -5551,937 +5739,937 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>149</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>8</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>90</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>15</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -6499,274 +6687,274 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>41</v>
-      </c>
       <c r="D11" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6784,19 +6972,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6814,19 +7002,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6844,19 +7032,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -6874,53 +7062,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -6938,19 +7126,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/backend/utility_structure.xlsx
+++ b/data/backend/utility_structure.xlsx
@@ -411,19 +411,31 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>$VALUES</t>
   </si>
   <si>
     <t>PRODUCT_ORDER_GROUP</t>
   </si>
   <si>
+    <t>ACTIVITY_ORDER_GROUP</t>
+  </si>
+  <si>
     <t>ACTIVITY_PRODUCT_GROUP</t>
   </si>
   <si>
-    <t>ACTIVITY_ORDER_GROUP</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>postgresqlContainer</t>
+  </si>
+  <si>
+    <t>org.testcontainers.containers.PostgreSQLContainer</t>
+  </si>
+  <si>
+    <t>eurekaContainer</t>
+  </si>
+  <si>
+    <t>org.testcontainers.containers.GenericContainer</t>
   </si>
   <si>
     <t>kafkaContainer</t>
@@ -432,18 +444,6 @@
     <t>org.testcontainers.containers.KafkaContainer</t>
   </si>
   <si>
-    <t>postgresqlContainer</t>
-  </si>
-  <si>
-    <t>org.testcontainers.containers.PostgreSQLContainer</t>
-  </si>
-  <si>
-    <t>eurekaContainer</t>
-  </si>
-  <si>
-    <t>org.testcontainers.containers.GenericContainer</t>
-  </si>
-  <si>
     <t>EUREKA_PORT</t>
   </si>
   <si>
@@ -459,60 +459,60 @@
     <t>CLIENT_ERROR</t>
   </si>
   <si>
+    <t>PRODUCT_MICROPHONE_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SUBWOOFERS_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_SPEAKERS_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_AMPLIFIER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_GRAMOPHONE_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
     <t>ORDER_ENTRY_INTERNAL_TOPIC</t>
   </si>
   <si>
+    <t>PRODUCT_AMPLIFIER_VARIANT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
     <t>PRODUCT_HEADPHONES_VARIANT_INTERNAL_TOPIC</t>
   </si>
   <si>
+    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_COMMENT_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>PRODUCT_PRODUCER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>ORDER_INTERNAL_TOPIC</t>
+  </si>
+  <si>
+    <t>topicName</t>
+  </si>
+  <si>
     <t>PRODUCT_MICROPHONE_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_SPEAKERS_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_GRAMOPHONE_INTERNAL_TOPIC</t>
-  </si>
-  <si>
     <t>PRODUCT_SUBWOOFERS_VARIANT_INTERNAL_TOPIC</t>
   </si>
   <si>
-    <t>PRODUCT_COMMENT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SPEAKERS_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_SUBWOOFERS_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_ORDER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>topicName</t>
-  </si>
-  <si>
-    <t>PRODUCT_AMPLIFIER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_GRAMOPHONE_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_HEADPHONES_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_PRODUCER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_MICROPHONE_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>PRODUCT_AMPLIFIER_VARIANT_INTERNAL_TOPIC</t>
-  </si>
-  <si>
-    <t>ORDER_INTERNAL_TOPIC</t>
-  </si>
-  <si>
     <t>serialVersionUID</t>
   </si>
   <si>
@@ -522,33 +522,33 @@
     <t>$assertionsDisabled</t>
   </si>
   <si>
+    <t>GREATER_THAN</t>
+  </si>
+  <si>
+    <t>LESS_THAN</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>NOT_EQUAL</t>
+  </si>
+  <si>
     <t>operator</t>
   </si>
   <si>
+    <t>EQUAL</t>
+  </si>
+  <si>
+    <t>LESS_THAN_OR_EQUAL</t>
+  </si>
+  <si>
+    <t>GREATER_THAN_OR_EQUAL</t>
+  </si>
+  <si>
     <t>NOT_IN</t>
   </si>
   <si>
-    <t>LESS_THAN_OR_EQUAL</t>
-  </si>
-  <si>
-    <t>NOT_EQUAL</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>EQUAL</t>
-  </si>
-  <si>
-    <t>GREATER_THAN</t>
-  </si>
-  <si>
-    <t>LESS_THAN</t>
-  </si>
-  <si>
-    <t>GREATER_THAN_OR_EQUAL</t>
-  </si>
-  <si>
     <t>$SwitchMap$org$andante$enums$OperationStatus</t>
   </si>
   <si>
@@ -558,61 +558,61 @@
     <t>$SwitchMap$org$andante$rsql$operator$RSQLSearchOperator</t>
   </si>
   <si>
+    <t>DELETE</t>
+  </si>
+  <si>
     <t>MODIFY</t>
   </si>
   <si>
-    <t>DELETE</t>
-  </si>
-  <si>
     <t>CREATE</t>
   </si>
   <si>
+    <t>DATABASE_WILDCARD</t>
+  </si>
+  <si>
     <t>property</t>
   </si>
   <si>
     <t>RSQL_WILDCARD</t>
   </si>
   <si>
-    <t>DATABASE_WILDCARD</t>
+    <t>RSQL_MAPPING_ERROR_MESSAGE</t>
   </si>
   <si>
     <t>arguments</t>
   </si>
   <si>
-    <t>RSQL_MAPPING_ERROR_MESSAGE</t>
-  </si>
-  <si>
     <t>specificationBuilder</t>
   </si>
   <si>
+    <t>LEFT_BRACKET</t>
+  </si>
+  <si>
     <t>reservedCharacter</t>
   </si>
   <si>
+    <t>EQUALS</t>
+  </si>
+  <si>
+    <t>RIGHT_BRACKET</t>
+  </si>
+  <si>
+    <t>EXCLAMATION_MARK</t>
+  </si>
+  <si>
+    <t>APOSTROPHE</t>
+  </si>
+  <si>
+    <t>SEMICOLON</t>
+  </si>
+  <si>
     <t>TILDE</t>
   </si>
   <si>
-    <t>RIGHT_BRACKET</t>
-  </si>
-  <si>
-    <t>SEMICOLON</t>
-  </si>
-  <si>
-    <t>APOSTROPHE</t>
-  </si>
-  <si>
     <t>QUOTE</t>
   </si>
   <si>
-    <t>EQUALS</t>
-  </si>
-  <si>
     <t>COMMA</t>
-  </si>
-  <si>
-    <t>LEFT_BRACKET</t>
-  </si>
-  <si>
-    <t>EXCLAMATION_MARK</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -5689,7 +5689,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -5700,10 +5700,10 @@
         <v>130</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -5742,10 +5742,10 @@
         <v>133</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5809,7 +5809,7 @@
         <v>43</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>13</v>
@@ -5907,13 +5907,13 @@
         <v>50</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -5921,7 +5921,7 @@
         <v>50</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
@@ -5935,7 +5935,7 @@
         <v>50</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
@@ -5949,7 +5949,7 @@
         <v>50</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
@@ -5963,7 +5963,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>6</v>
@@ -5977,7 +5977,7 @@
         <v>50</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
@@ -5991,7 +5991,7 @@
         <v>50</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
@@ -6005,7 +6005,7 @@
         <v>50</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
@@ -6019,13 +6019,13 @@
         <v>50</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
@@ -6092,10 +6092,10 @@
         <v>160</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -6145,13 +6145,13 @@
         <v>54</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>58</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>8</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36">
@@ -6159,13 +6159,13 @@
         <v>54</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>58</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>164</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -6176,10 +6176,10 @@
         <v>166</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
@@ -6215,13 +6215,13 @@
         <v>74</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -6229,7 +6229,7 @@
         <v>74</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
@@ -6243,13 +6243,13 @@
         <v>74</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
@@ -6257,7 +6257,7 @@
         <v>74</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
@@ -6271,7 +6271,7 @@
         <v>74</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
@@ -6285,13 +6285,13 @@
         <v>74</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46">
@@ -6355,13 +6355,13 @@
         <v>91</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51">
@@ -6369,7 +6369,7 @@
         <v>91</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>6</v>
@@ -6383,13 +6383,13 @@
         <v>91</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53">
@@ -6411,13 +6411,13 @@
         <v>94</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
@@ -6425,7 +6425,7 @@
         <v>94</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>13</v>
@@ -6439,13 +6439,13 @@
         <v>94</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>13</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
@@ -6459,7 +6459,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>102</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
@@ -6473,7 +6473,7 @@
         <v>13</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59">
@@ -6498,10 +6498,10 @@
         <v>187</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>17</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61">
@@ -6512,10 +6512,10 @@
         <v>188</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>115</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
@@ -6551,13 +6551,13 @@
         <v>115</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65">
@@ -6565,7 +6565,7 @@
         <v>115</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
@@ -6579,7 +6579,7 @@
         <v>115</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
@@ -6593,7 +6593,7 @@
         <v>115</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>6</v>
@@ -6607,7 +6607,7 @@
         <v>115</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
@@ -6621,7 +6621,7 @@
         <v>115</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
@@ -6635,7 +6635,7 @@
         <v>115</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
@@ -6649,13 +6649,13 @@
         <v>115</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72">
@@ -6663,7 +6663,7 @@
         <v>115</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>

--- a/data/backend/utility_structure.xlsx
+++ b/data/backend/utility_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="225">
   <si>
     <t>Class Name</t>
   </si>
@@ -697,9 +697,6 @@
   </si>
   <si>
     <t>37</t>
-  </si>
-  <si>
-    <t>5</t>
   </si>
 </sst>
 </file>
@@ -4980,7 +4977,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5024,7 +5021,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>221</v>
@@ -5035,29 +5032,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>202</v>
@@ -5065,13 +5062,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
@@ -5079,7 +5076,7 @@
         <v>43</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>202</v>
@@ -5087,21 +5084,21 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>202</v>
@@ -5109,10 +5106,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>202</v>
@@ -5120,29 +5117,29 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>25</v>
@@ -5153,7 +5150,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>5</v>
@@ -5164,10 +5161,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>221</v>
@@ -5175,10 +5172,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>221</v>
@@ -5186,10 +5183,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>202</v>
@@ -5197,153 +5194,153 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>221</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>202</v>
@@ -5351,10 +5348,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>202</v>
@@ -5362,87 +5359,87 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>202</v>
@@ -5450,21 +5447,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>202</v>
@@ -5472,155 +5469,12 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B46" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B47" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="C47" t="s" s="0">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B48" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="C48" t="s" s="0">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B49" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="C49" t="s" s="0">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B50" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="C50" t="s" s="0">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B51" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="C51" t="s" s="0">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B52" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="C52" t="s" s="0">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B53" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C53" t="s" s="0">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B54" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B55" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B56" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="C56" t="s" s="0">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B57" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C57" t="s" s="0">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="B58" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="C58" t="s" s="0">
         <v>221</v>
       </c>
     </row>

--- a/data/backend/utility_structure.xlsx
+++ b/data/backend/utility_structure.xlsx
@@ -678,7 +678,7 @@
     <t>26</t>
   </si>
   <si>
-    <t>2</t>
+    <t>0</t>
   </si>
   <si>
     <t>92</t>
@@ -4911,7 +4911,7 @@
         <v>87</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11">
@@ -4919,7 +4919,7 @@
         <v>89</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12">
@@ -4927,7 +4927,7 @@
         <v>90</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13">
@@ -5002,7 +5002,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3">
@@ -5013,7 +5013,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4">
@@ -5035,7 +5035,7 @@
         <v>33</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6">
@@ -5057,7 +5057,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8">
@@ -5068,7 +5068,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9">
@@ -5079,7 +5079,7 @@
         <v>33</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10">
@@ -5101,7 +5101,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13">
@@ -5134,7 +5134,7 @@
         <v>33</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15">
@@ -5145,7 +5145,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16">
@@ -5156,7 +5156,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17">
@@ -5189,7 +5189,7 @@
         <v>76</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20">
@@ -5200,7 +5200,7 @@
         <v>33</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21">
@@ -5244,7 +5244,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
@@ -5255,7 +5255,7 @@
         <v>5</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26">
@@ -5266,7 +5266,7 @@
         <v>33</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
@@ -5321,7 +5321,7 @@
         <v>104</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32">
@@ -5332,7 +5332,7 @@
         <v>103</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33">
@@ -5343,7 +5343,7 @@
         <v>100</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34">
@@ -5354,7 +5354,7 @@
         <v>97</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35">
@@ -5398,7 +5398,7 @@
         <v>114</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39">
@@ -5409,7 +5409,7 @@
         <v>111</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40">
@@ -5420,7 +5420,7 @@
         <v>112</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41">
@@ -5431,7 +5431,7 @@
         <v>25</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42">
@@ -5442,7 +5442,7 @@
         <v>5</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43">
@@ -5464,7 +5464,7 @@
         <v>33</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45">
